--- a/data/DE_datapower_plants.xlsx
+++ b/data/DE_datapower_plants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E272"/>
+  <dimension ref="A1:H272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total_capacity</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_weighted_mean</t>
+          <t>Efficiency</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DischarginEfficiency</t>
         </is>
       </c>
     </row>
@@ -472,6 +487,19 @@
       </c>
       <c r="E2" t="n">
         <v>0.3687716884328358</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -492,6 +520,19 @@
       <c r="E3" t="n">
         <v>0.3706874999999999</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -511,6 +552,19 @@
       <c r="E4" t="n">
         <v>0.3585565144766147</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -530,6 +584,19 @@
       <c r="E5" t="n">
         <v>0.3336232453677709</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -549,6 +616,19 @@
       <c r="E6" t="n">
         <v>0.360829420970266</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -568,6 +648,19 @@
       <c r="E7" t="n">
         <v>0.3388254706152434</v>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -587,6 +680,19 @@
       <c r="E8" t="n">
         <v>0.3544569672131148</v>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -606,6 +712,19 @@
       <c r="E9" t="n">
         <v>0.3413282419886193</v>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -625,6 +744,19 @@
       <c r="E10" t="n">
         <v>0.3491251565121017</v>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -644,6 +776,19 @@
       <c r="E11" t="n">
         <v>0.3546495281877572</v>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -663,6 +808,19 @@
       <c r="E12" t="n">
         <v>0.3764453125</v>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -682,6 +840,19 @@
       <c r="E13" t="n">
         <v>0.3800000000000001</v>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -701,6 +872,19 @@
       <c r="E14" t="n">
         <v>0.3715024630541872</v>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -720,6 +904,19 @@
       <c r="E15" t="n">
         <v>0.3478655011013215</v>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -739,6 +936,19 @@
       <c r="E16" t="n">
         <v>0.3351148225469728</v>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -758,6 +968,19 @@
       <c r="E17" t="n">
         <v>0.3300000000000001</v>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -777,6 +1000,19 @@
       <c r="E18" t="n">
         <v>0.3366157760814249</v>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -796,6 +1032,19 @@
       <c r="E19" t="n">
         <v>0.3448333333333333</v>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -815,6 +1064,19 @@
       <c r="E20" t="n">
         <v>0.33</v>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -834,6 +1096,19 @@
       <c r="E21" t="n">
         <v>0.3498114187878548</v>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -853,6 +1128,19 @@
       <c r="E22" t="n">
         <v>0.3510340827980015</v>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -872,6 +1160,19 @@
       <c r="E23" t="n">
         <v>0.444746514575412</v>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -891,6 +1192,19 @@
       <c r="E24" t="n">
         <v>0.46</v>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -910,6 +1224,19 @@
       <c r="E25" t="n">
         <v>0.4575</v>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -929,6 +1256,19 @@
       <c r="E26" t="n">
         <v>0.455</v>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -948,6 +1288,19 @@
       <c r="E27" t="n">
         <v>0.4525</v>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -967,6 +1320,19 @@
       <c r="E28" t="n">
         <v>0.45</v>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -986,6 +1352,19 @@
       <c r="E29" t="n">
         <v>0.4475</v>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1005,6 +1384,19 @@
       <c r="E30" t="n">
         <v>0.4425</v>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1024,6 +1416,19 @@
       <c r="E31" t="n">
         <v>0.44</v>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1043,6 +1448,19 @@
       <c r="E32" t="n">
         <v>0.4375</v>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1062,6 +1480,19 @@
       <c r="E33" t="n">
         <v>0.4325</v>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1081,6 +1512,19 @@
       <c r="E34" t="n">
         <v>0.425</v>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1100,6 +1544,19 @@
       <c r="E35" t="n">
         <v>0.409327656554905</v>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1119,6 +1576,19 @@
       <c r="E36" t="n">
         <v>0.4074999999999999</v>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1138,6 +1608,19 @@
       <c r="E37" t="n">
         <v>0.4104637706961011</v>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1157,6 +1640,19 @@
       <c r="E38" t="n">
         <v>0.4025</v>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1176,6 +1672,19 @@
       <c r="E39" t="n">
         <v>0.4</v>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1195,6 +1704,19 @@
       <c r="E40" t="n">
         <v>0.4015249180327869</v>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1214,6 +1736,19 @@
       <c r="E41" t="n">
         <v>0.3950000000000001</v>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1233,6 +1768,19 @@
       <c r="E42" t="n">
         <v>0.3925</v>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1252,6 +1800,19 @@
       <c r="E43" t="n">
         <v>0.3948815789473684</v>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1271,6 +1832,19 @@
       <c r="E44" t="n">
         <v>0.4257010192525481</v>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1290,6 +1864,19 @@
       <c r="E45" t="n">
         <v>0.3894743202416918</v>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1309,6 +1896,19 @@
       <c r="E46" t="n">
         <v>0.3799999999999999</v>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1328,6 +1928,19 @@
       <c r="E47" t="n">
         <v>0.3775</v>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1347,6 +1960,19 @@
       <c r="E48" t="n">
         <v>0.3725</v>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1366,6 +1992,19 @@
       <c r="E49" t="n">
         <v>0.365</v>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1385,6 +2024,19 @@
       <c r="E50" t="n">
         <v>0.368811767796165</v>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1404,6 +2056,19 @@
       <c r="E51" t="n">
         <v>0.3475</v>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1423,6 +2088,19 @@
       <c r="E52" t="n">
         <v>0.3442207792207791</v>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1442,6 +2120,19 @@
       <c r="E53" t="n">
         <v>0.3274806201550388</v>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1461,6 +2152,19 @@
       <c r="E54" t="n">
         <v>0.2662165463041631</v>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1480,6 +2184,19 @@
       <c r="E55" t="n">
         <v>0.63</v>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1499,6 +2216,19 @@
       <c r="E56" t="n">
         <v>0.612</v>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1518,6 +2248,19 @@
       <c r="E57" t="n">
         <v>0.6069031387107662</v>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1537,6 +2280,19 @@
       <c r="E58" t="n">
         <v>0.5676431965316276</v>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1556,6 +2312,19 @@
       <c r="E59" t="n">
         <v>0.5491641790000001</v>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1575,6 +2344,19 @@
       <c r="E60" t="n">
         <v>0.5895</v>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1594,6 +2376,19 @@
       <c r="E61" t="n">
         <v>0.5667274663738143</v>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1613,6 +2408,19 @@
       <c r="E62" t="n">
         <v>0.5805</v>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1632,6 +2440,19 @@
       <c r="E63" t="n">
         <v>0.5702018207017209</v>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1651,6 +2472,19 @@
       <c r="E64" t="n">
         <v>0.5670828963085036</v>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1670,6 +2504,19 @@
       <c r="E65" t="n">
         <v>0.5625</v>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1689,6 +2536,19 @@
       <c r="E66" t="n">
         <v>0.5522760531401774</v>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1708,6 +2568,19 @@
       <c r="E67" t="n">
         <v>0.5518155476248676</v>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1727,6 +2600,19 @@
       <c r="E68" t="n">
         <v>0.5445</v>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1746,6 +2632,19 @@
       <c r="E69" t="n">
         <v>0.54</v>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1765,6 +2664,19 @@
       <c r="E70" t="n">
         <v>0.5458543097996403</v>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1784,6 +2696,19 @@
       <c r="E71" t="n">
         <v>0.5393824187731366</v>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1803,6 +2728,19 @@
       <c r="E72" t="n">
         <v>0.5415999915190983</v>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1822,6 +2760,19 @@
       <c r="E73" t="n">
         <v>0.5379878856221973</v>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1841,6 +2792,19 @@
       <c r="E74" t="n">
         <v>0.5370148537242205</v>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1860,6 +2824,19 @@
       <c r="E75" t="n">
         <v>0.5220584648747592</v>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1879,6 +2856,19 @@
       <c r="E76" t="n">
         <v>0.5367635278665247</v>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1898,6 +2888,19 @@
       <c r="E77" t="n">
         <v>0.549164179</v>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1917,6 +2920,19 @@
       <c r="E78" t="n">
         <v>0.549164179</v>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1936,6 +2952,19 @@
       <c r="E79" t="n">
         <v>0.549164179</v>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -1955,6 +2984,19 @@
       <c r="E80" t="n">
         <v>0.549164179</v>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -1974,6 +3016,19 @@
       <c r="E81" t="n">
         <v>0.4545</v>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -1993,6 +3048,19 @@
       <c r="E82" t="n">
         <v>0.4500000000000001</v>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2012,6 +3080,19 @@
       <c r="E83" t="n">
         <v>0.549164179</v>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2031,6 +3112,19 @@
       <c r="E84" t="n">
         <v>0.4671386697633244</v>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2050,6 +3144,19 @@
       <c r="E85" t="n">
         <v>0.549164179</v>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2069,6 +3176,19 @@
       <c r="E86" t="n">
         <v>0.423</v>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2088,6 +3208,19 @@
       <c r="E87" t="n">
         <v>0.4183939929328622</v>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2107,6 +3240,19 @@
       <c r="E88" t="n">
         <v>0.4413790172481751</v>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2126,6 +3272,19 @@
       <c r="E89" t="n">
         <v>0.4058999999999999</v>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2145,6 +3304,19 @@
       <c r="E90" t="n">
         <v>0.4047999999999999</v>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2164,6 +3336,19 @@
       <c r="E91" t="n">
         <v>0.4037</v>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2183,6 +3368,19 @@
       <c r="E92" t="n">
         <v>0.4026000000000001</v>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2202,6 +3400,19 @@
       <c r="E93" t="n">
         <v>0.4026033898305084</v>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2221,6 +3432,19 @@
       <c r="E94" t="n">
         <v>0.4035532141599155</v>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2240,6 +3464,19 @@
       <c r="E95" t="n">
         <v>0.4046372325766917</v>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2259,6 +3496,19 @@
       <c r="E96" t="n">
         <v>0.3947848101265823</v>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2278,6 +3528,19 @@
       <c r="E97" t="n">
         <v>0.3954658740105763</v>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2297,6 +3560,19 @@
       <c r="E98" t="n">
         <v>0.3911787675411837</v>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2316,6 +3592,19 @@
       <c r="E99" t="n">
         <v>0.3896423046566693</v>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2335,6 +3624,19 @@
       <c r="E100" t="n">
         <v>0.3883</v>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2354,6 +3656,19 @@
       <c r="E101" t="n">
         <v>0.3871999999999999</v>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2373,6 +3688,19 @@
       <c r="E102" t="n">
         <v>0.3857323834196891</v>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2392,6 +3720,19 @@
       <c r="E103" t="n">
         <v>0.393938567493113</v>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2411,6 +3752,19 @@
       <c r="E104" t="n">
         <v>0.3828</v>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2430,6 +3784,19 @@
       <c r="E105" t="n">
         <v>0.3772837328978881</v>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2449,6 +3816,19 @@
       <c r="E106" t="n">
         <v>0.3781004255319149</v>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2468,6 +3848,19 @@
       <c r="E107" t="n">
         <v>0.3785282012195123</v>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2487,6 +3880,19 @@
       <c r="E108" t="n">
         <v>0.3781265415549599</v>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2506,6 +3912,19 @@
       <c r="E109" t="n">
         <v>0.3765012269938651</v>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2525,6 +3944,19 @@
       <c r="E110" t="n">
         <v>0.3657799297479372</v>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2544,6 +3976,19 @@
       <c r="E111" t="n">
         <v>0.366324169435216</v>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2563,6 +4008,19 @@
       <c r="E112" t="n">
         <v>0.3718000000000001</v>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2582,6 +4040,19 @@
       <c r="E113" t="n">
         <v>0.365937986084453</v>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2601,6 +4072,19 @@
       <c r="E114" t="n">
         <v>0.3465405750798722</v>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2620,6 +4104,19 @@
       <c r="E115" t="n">
         <v>0.3625559833300258</v>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2639,6 +4136,19 @@
       <c r="E116" t="n">
         <v>0.3596637713916694</v>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2658,6 +4168,19 @@
       <c r="E117" t="n">
         <v>0.3566412766921995</v>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2677,6 +4200,19 @@
       <c r="E118" t="n">
         <v>0.3186290862290863</v>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2696,6 +4232,19 @@
       <c r="E119" t="n">
         <v>0.3271142076502733</v>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2715,6 +4264,19 @@
       <c r="E120" t="n">
         <v>0.3372683052055411</v>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2734,6 +4296,19 @@
       <c r="E121" t="n">
         <v>0.3330798657718121</v>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2753,6 +4328,19 @@
       <c r="E122" t="n">
         <v>0.3340441860465116</v>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -2772,6 +4360,19 @@
       <c r="E123" t="n">
         <v>0.324219926199262</v>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -2791,6 +4392,19 @@
       <c r="E124" t="n">
         <v>0.7996367521367523</v>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2810,6 +4424,19 @@
       <c r="E125" t="n">
         <v>0.7545076633892424</v>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -2829,6 +4456,19 @@
       <c r="E126" t="n">
         <v>0.75</v>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2848,6 +4488,19 @@
       <c r="E127" t="n">
         <v>0.75</v>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -2867,6 +4520,19 @@
       <c r="E128" t="n">
         <v>0.7999999999999999</v>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -2886,6 +4552,19 @@
       <c r="E129" t="n">
         <v>0.7551672813487882</v>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -2905,6 +4584,19 @@
       <c r="E130" t="n">
         <v>0.7999999999999998</v>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -2924,6 +4616,19 @@
       <c r="E131" t="n">
         <v>0.7601990049751245</v>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -2943,6 +4648,19 @@
       <c r="E132" t="n">
         <v>0.8000000000000002</v>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -2962,6 +4680,19 @@
       <c r="E133" t="n">
         <v>0.7505768867032344</v>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -2981,6 +4712,19 @@
       <c r="E134" t="n">
         <v>0.8</v>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3000,6 +4744,19 @@
       <c r="E135" t="n">
         <v>0.750901046724938</v>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3019,6 +4776,19 @@
       <c r="E136" t="n">
         <v>0.75</v>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3038,6 +4808,19 @@
       <c r="E137" t="n">
         <v>0.7999999999999999</v>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3057,6 +4840,19 @@
       <c r="E138" t="n">
         <v>0.763406795224977</v>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3076,6 +4872,19 @@
       <c r="E139" t="n">
         <v>0.7592483586144441</v>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3095,6 +4904,19 @@
       <c r="E140" t="n">
         <v>0.772321236847756</v>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3114,6 +4936,19 @@
       <c r="E141" t="n">
         <v>0.7544117647058823</v>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3133,6 +4968,19 @@
       <c r="E142" t="n">
         <v>0.8</v>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3152,6 +5000,19 @@
       <c r="E143" t="n">
         <v>0.7770114942528736</v>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3171,6 +5032,19 @@
       <c r="E144" t="n">
         <v>0.7574679943100995</v>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3190,6 +5064,19 @@
       <c r="E145" t="n">
         <v>0.7548438699769645</v>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3209,6 +5096,19 @@
       <c r="E146" t="n">
         <v>0.7854068396226416</v>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3228,6 +5128,19 @@
       <c r="E147" t="n">
         <v>0.9585365853658537</v>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3247,6 +5160,19 @@
       <c r="E148" t="n">
         <v>0.8</v>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3266,6 +5192,19 @@
       <c r="E149" t="n">
         <v>0.7692748873412537</v>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3285,6 +5224,19 @@
       <c r="E150" t="n">
         <v>0.75</v>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3304,6 +5256,19 @@
       <c r="E151" t="n">
         <v>0.8</v>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3323,6 +5288,19 @@
       <c r="E152" t="n">
         <v>0.75</v>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3342,6 +5320,19 @@
       <c r="E153" t="n">
         <v>0.8</v>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3361,6 +5352,19 @@
       <c r="E154" t="n">
         <v>0.8</v>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3380,6 +5384,19 @@
       <c r="E155" t="n">
         <v>0.7619274809160305</v>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3399,6 +5416,19 @@
       <c r="E156" t="n">
         <v>0.7834615384615385</v>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -3418,6 +5448,19 @@
       <c r="E157" t="n">
         <v>0.7999999999999999</v>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -3437,6 +5480,19 @@
       <c r="E158" t="n">
         <v>0.8217924271315717</v>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3456,6 +5512,19 @@
       <c r="E159" t="n">
         <v>0.33</v>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -3475,6 +5544,19 @@
       <c r="E160" t="n">
         <v>0.33</v>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3494,6 +5576,19 @@
       <c r="E161" t="n">
         <v>0.33</v>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -3513,6 +5608,19 @@
       <c r="E162" t="n">
         <v>0.33</v>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -3532,6 +5640,19 @@
       <c r="E163" t="n">
         <v>0.33</v>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3551,6 +5672,19 @@
       <c r="E164" t="n">
         <v>1</v>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -3570,6 +5704,19 @@
       <c r="E165" t="n">
         <v>1</v>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -3589,6 +5736,19 @@
       <c r="E166" t="n">
         <v>1</v>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -3608,6 +5768,19 @@
       <c r="E167" t="n">
         <v>1</v>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -3627,6 +5800,19 @@
       <c r="E168" t="n">
         <v>1</v>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -3646,6 +5832,19 @@
       <c r="E169" t="n">
         <v>1</v>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -3665,6 +5864,19 @@
       <c r="E170" t="n">
         <v>1</v>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -3684,6 +5896,19 @@
       <c r="E171" t="n">
         <v>1</v>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -3703,6 +5928,19 @@
       <c r="E172" t="n">
         <v>1</v>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -3722,6 +5960,19 @@
       <c r="E173" t="n">
         <v>1</v>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -3741,6 +5992,19 @@
       <c r="E174" t="n">
         <v>1</v>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -3760,6 +6024,19 @@
       <c r="E175" t="n">
         <v>1</v>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -3779,6 +6056,19 @@
       <c r="E176" t="n">
         <v>1</v>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -3798,6 +6088,19 @@
       <c r="E177" t="n">
         <v>1</v>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -3817,6 +6120,19 @@
       <c r="E178" t="n">
         <v>1</v>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -3836,6 +6152,19 @@
       <c r="E179" t="n">
         <v>1</v>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -3855,6 +6184,19 @@
       <c r="E180" t="n">
         <v>1</v>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -3874,6 +6216,19 @@
       <c r="E181" t="n">
         <v>1</v>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -3893,6 +6248,19 @@
       <c r="E182" t="n">
         <v>1</v>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -3912,6 +6280,19 @@
       <c r="E183" t="n">
         <v>1</v>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -3931,6 +6312,19 @@
       <c r="E184" t="n">
         <v>1</v>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -3950,6 +6344,19 @@
       <c r="E185" t="n">
         <v>1</v>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -3969,6 +6376,19 @@
       <c r="E186" t="n">
         <v>1</v>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -3988,6 +6408,19 @@
       <c r="E187" t="n">
         <v>1</v>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4007,6 +6440,19 @@
       <c r="E188" t="n">
         <v>1</v>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4026,6 +6472,19 @@
       <c r="E189" t="n">
         <v>1</v>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -4045,6 +6504,19 @@
       <c r="E190" t="n">
         <v>1</v>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -4064,6 +6536,19 @@
       <c r="E191" t="n">
         <v>1</v>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4083,6 +6568,19 @@
       <c r="E192" t="n">
         <v>1</v>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -4102,6 +6600,19 @@
       <c r="E193" t="n">
         <v>1</v>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4121,6 +6632,19 @@
       <c r="E194" t="n">
         <v>1</v>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4140,6 +6664,19 @@
       <c r="E195" t="n">
         <v>1</v>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4159,6 +6696,19 @@
       <c r="E196" t="n">
         <v>1</v>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4178,6 +6728,19 @@
       <c r="E197" t="n">
         <v>1</v>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4197,6 +6760,19 @@
       <c r="E198" t="n">
         <v>1</v>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -4216,6 +6792,19 @@
       <c r="E199" t="n">
         <v>1</v>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -4235,6 +6824,19 @@
       <c r="E200" t="n">
         <v>1</v>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -4254,6 +6856,19 @@
       <c r="E201" t="n">
         <v>1</v>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -4273,6 +6888,19 @@
       <c r="E202" t="n">
         <v>1</v>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -4292,6 +6920,19 @@
       <c r="E203" t="n">
         <v>1</v>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -4311,6 +6952,19 @@
       <c r="E204" t="n">
         <v>1</v>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -4330,6 +6984,19 @@
       <c r="E205" t="n">
         <v>1</v>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -4349,6 +7016,19 @@
       <c r="E206" t="n">
         <v>1</v>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -4368,6 +7048,19 @@
       <c r="E207" t="n">
         <v>1</v>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -4387,6 +7080,19 @@
       <c r="E208" t="n">
         <v>1</v>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -4406,6 +7112,19 @@
       <c r="E209" t="n">
         <v>1</v>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -4425,6 +7144,19 @@
       <c r="E210" t="n">
         <v>1</v>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -4444,6 +7176,19 @@
       <c r="E211" t="n">
         <v>1</v>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -4463,6 +7208,19 @@
       <c r="E212" t="n">
         <v>1</v>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -4482,6 +7240,19 @@
       <c r="E213" t="n">
         <v>1</v>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -4501,6 +7272,19 @@
       <c r="E214" t="n">
         <v>1</v>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -4520,6 +7304,19 @@
       <c r="E215" t="n">
         <v>1</v>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -4539,6 +7336,19 @@
       <c r="E216" t="n">
         <v>1</v>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -4558,6 +7368,19 @@
       <c r="E217" t="n">
         <v>1</v>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -4577,6 +7400,19 @@
       <c r="E218" t="n">
         <v>1</v>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -4596,6 +7432,19 @@
       <c r="E219" t="n">
         <v>1</v>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -4615,6 +7464,19 @@
       <c r="E220" t="n">
         <v>1</v>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -4634,6 +7496,19 @@
       <c r="E221" t="n">
         <v>1</v>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -4653,6 +7528,19 @@
       <c r="E222" t="n">
         <v>1</v>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -4672,6 +7560,19 @@
       <c r="E223" t="n">
         <v>1</v>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -4691,6 +7592,19 @@
       <c r="E224" t="n">
         <v>1</v>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -4710,6 +7624,19 @@
       <c r="E225" t="n">
         <v>1</v>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -4729,6 +7656,19 @@
       <c r="E226" t="n">
         <v>0.4288350465777074</v>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -4748,6 +7688,19 @@
       <c r="E227" t="n">
         <v>0.424</v>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -4767,6 +7720,19 @@
       <c r="E228" t="n">
         <v>0.4216</v>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -4786,6 +7752,19 @@
       <c r="E229" t="n">
         <v>0.4192</v>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -4805,6 +7784,19 @@
       <c r="E230" t="n">
         <v>0.4049152333491863</v>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -4824,6 +7816,19 @@
       <c r="E231" t="n">
         <v>0.4</v>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -4843,6 +7848,19 @@
       <c r="E232" t="n">
         <v>0.3976</v>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -4862,6 +7880,19 @@
       <c r="E233" t="n">
         <v>0.3952</v>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -4881,6 +7912,19 @@
       <c r="E234" t="n">
         <v>0.3927999999999999</v>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -4900,6 +7944,19 @@
       <c r="E235" t="n">
         <v>0.3903827338129497</v>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -4919,6 +7976,19 @@
       <c r="E236" t="n">
         <v>0.3856</v>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -4938,6 +8008,19 @@
       <c r="E237" t="n">
         <v>0.3832</v>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -4957,6 +8040,19 @@
       <c r="E238" t="n">
         <v>0.3760000000000001</v>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -4976,6 +8072,19 @@
       <c r="E239" t="n">
         <v>0.3736</v>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -4995,6 +8104,19 @@
       <c r="E240" t="n">
         <v>0.3712</v>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -5014,6 +8136,19 @@
       <c r="E241" t="n">
         <v>0.3688</v>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -5033,6 +8168,19 @@
       <c r="E242" t="n">
         <v>0.3638764461666205</v>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -5052,6 +8200,19 @@
       <c r="E243" t="n">
         <v>0.3496</v>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -5071,6 +8232,19 @@
       <c r="E244" t="n">
         <v>0.3424</v>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -5090,6 +8264,19 @@
       <c r="E245" t="n">
         <v>0.3400000000000001</v>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -5109,6 +8296,19 @@
       <c r="E246" t="n">
         <v>0.3376</v>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -5128,6 +8328,19 @@
       <c r="E247" t="n">
         <v>0.3352</v>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -5147,6 +8360,19 @@
       <c r="E248" t="n">
         <v>0.3328</v>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -5166,6 +8392,19 @@
       <c r="E249" t="n">
         <v>0.3304</v>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -5185,6 +8424,19 @@
       <c r="E250" t="n">
         <v>0.328</v>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -5204,6 +8456,19 @@
       <c r="E251" t="n">
         <v>0.3232</v>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -5223,6 +8488,19 @@
       <c r="E252" t="n">
         <v>0.3208</v>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -5242,6 +8520,19 @@
       <c r="E253" t="n">
         <v>0.3158974358974359</v>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -5261,6 +8552,19 @@
       <c r="E254" t="n">
         <v>0.2477170731707317</v>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -5280,6 +8584,19 @@
       <c r="E255" t="n">
         <v>0.2008</v>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -5299,6 +8616,19 @@
       <c r="E256" t="n">
         <v>0.3971</v>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -5318,6 +8648,19 @@
       <c r="E257" t="n">
         <v>0.38</v>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -5337,6 +8680,19 @@
       <c r="E258" t="n">
         <v>0.38</v>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -5356,6 +8712,19 @@
       <c r="E259" t="n">
         <v>0.3828</v>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -5375,6 +8744,19 @@
       <c r="E260" t="n">
         <v>0.3800838643371018</v>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -5394,6 +8776,19 @@
       <c r="E261" t="n">
         <v>0.3795000000000001</v>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -5413,6 +8808,19 @@
       <c r="E262" t="n">
         <v>0.3654415441176471</v>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -5432,6 +8840,19 @@
       <c r="E263" t="n">
         <v>0.3332</v>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -5451,6 +8872,19 @@
       <c r="E264" t="n">
         <v>0.3306</v>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -5470,6 +8904,19 @@
       <c r="E265" t="n">
         <v>0.3245183098591549</v>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -5489,6 +8936,19 @@
       <c r="E266" t="n">
         <v>0.3176</v>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -5508,6 +8968,19 @@
       <c r="E267" t="n">
         <v>0.3671346375143843</v>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -5527,6 +9000,19 @@
       <c r="E268" t="n">
         <v>0.3564</v>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -5546,6 +9032,19 @@
       <c r="E269" t="n">
         <v>0.3504833648393195</v>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -5565,6 +9064,19 @@
       <c r="E270" t="n">
         <v>0.3251815303430079</v>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -5584,6 +9096,19 @@
       <c r="E271" t="n">
         <v>0.3046</v>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -5602,6 +9127,19 @@
       </c>
       <c r="E272" t="n">
         <v>0.3432</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/DE_datapower_plants.xlsx
+++ b/data/DE_datapower_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4789E825-CCE0-4E0D-A80D-4728E9BF6088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB34F699-4473-4241-9AA5-396663D04128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Owner</t>
-  </si>
-  <si>
-    <t>DischarginEfficiency</t>
   </si>
   <si>
     <t>Biomass_CHP_wood_pellets_DH</t>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>DischargingEfficiency</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:I272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,10 +474,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -497,10 +497,10 @@
         <v>0.36877168843283581</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -526,10 +526,10 @@
         <v>0.37068749999999989</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -555,10 +555,10 @@
         <v>0.35855651447661469</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -584,10 +584,10 @@
         <v>0.33362324536777088</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -613,10 +613,10 @@
         <v>0.36082942097026599</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>13</v>
@@ -642,10 +642,10 @@
         <v>0.33882547061524337</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -671,10 +671,10 @@
         <v>0.35445696721311482</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -700,10 +700,10 @@
         <v>0.34132824198861927</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -729,10 +729,10 @@
         <v>0.34912515651210169</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>17</v>
@@ -758,10 +758,10 @@
         <v>0.35464952818775719</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -787,10 +787,10 @@
         <v>0.37644531250000002</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>19</v>
@@ -816,10 +816,10 @@
         <v>0.38000000000000012</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -845,10 +845,10 @@
         <v>0.37150246305418722</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>22</v>
@@ -874,10 +874,10 @@
         <v>0.34786550110132147</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>23</v>
@@ -903,10 +903,10 @@
         <v>0.33511482254697278</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>24</v>
@@ -932,10 +932,10 @@
         <v>0.33000000000000013</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>25</v>
@@ -961,10 +961,10 @@
         <v>0.3366157760814249</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>31</v>
@@ -990,10 +990,10 @@
         <v>0.34483333333333333</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>38</v>
@@ -1019,10 +1019,10 @@
         <v>0.33</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>40</v>
@@ -1048,10 +1048,10 @@
         <v>0.34981141878785482</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>49</v>
@@ -1077,10 +1077,10 @@
         <v>0.35103408279800152</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -1106,10 +1106,10 @@
         <v>0.44474651457541198</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -1135,10 +1135,10 @@
         <v>0.46</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -1164,10 +1164,10 @@
         <v>0.45750000000000002</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -1193,10 +1193,10 @@
         <v>0.45500000000000002</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -1222,10 +1222,10 @@
         <v>0.45250000000000001</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>12</v>
@@ -1251,10 +1251,10 @@
         <v>0.45</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>13</v>
@@ -1280,10 +1280,10 @@
         <v>0.44750000000000001</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>15</v>
@@ -1309,10 +1309,10 @@
         <v>0.4425</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>16</v>
@@ -1338,10 +1338,10 @@
         <v>0.44</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>17</v>
@@ -1367,10 +1367,10 @@
         <v>0.4375</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>19</v>
@@ -1396,10 +1396,10 @@
         <v>0.4325</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>22</v>
@@ -1425,10 +1425,10 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>28</v>
@@ -1454,10 +1454,10 @@
         <v>0.409327656554905</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>29</v>
@@ -1483,10 +1483,10 @@
         <v>0.40749999999999992</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>30</v>
@@ -1512,10 +1512,10 @@
         <v>0.41046377069610113</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>31</v>
@@ -1541,10 +1541,10 @@
         <v>0.40250000000000002</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>32</v>
@@ -1570,10 +1570,10 @@
         <v>0.4</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>33</v>
@@ -1599,10 +1599,10 @@
         <v>0.40152491803278689</v>
       </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>34</v>
@@ -1628,10 +1628,10 @@
         <v>0.39500000000000007</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42">
         <v>35</v>
@@ -1657,10 +1657,10 @@
         <v>0.39250000000000002</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>37</v>
@@ -1686,10 +1686,10 @@
         <v>0.39488157894736842</v>
       </c>
       <c r="F43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>38</v>
@@ -1715,10 +1715,10 @@
         <v>0.42570101925254811</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>39</v>
@@ -1744,10 +1744,10 @@
         <v>0.38947432024169182</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46">
         <v>40</v>
@@ -1773,10 +1773,10 @@
         <v>0.37999999999999989</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47">
         <v>41</v>
@@ -1802,10 +1802,10 @@
         <v>0.3775</v>
       </c>
       <c r="F47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48">
         <v>43</v>
@@ -1831,10 +1831,10 @@
         <v>0.3725</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49">
         <v>46</v>
@@ -1860,10 +1860,10 @@
         <v>0.36499999999999999</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <v>51</v>
@@ -1889,10 +1889,10 @@
         <v>0.36881176779616498</v>
       </c>
       <c r="F50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <v>53</v>
@@ -1918,10 +1918,10 @@
         <v>0.34749999999999998</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52">
         <v>54</v>
@@ -1947,10 +1947,10 @@
         <v>0.34422077922077909</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53">
         <v>60</v>
@@ -1976,10 +1976,10 @@
         <v>0.32748062015503882</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>82</v>
@@ -2005,10 +2005,10 @@
         <v>0.26621654630416308</v>
       </c>
       <c r="F54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -2034,10 +2034,10 @@
         <v>0.63</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -2063,10 +2063,10 @@
         <v>0.61199999999999999</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C57">
         <v>7</v>
@@ -2092,10 +2092,10 @@
         <v>0.60690313871076618</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58">
         <v>9</v>
@@ -2121,10 +2121,10 @@
         <v>0.56764319653162765</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <v>10</v>
@@ -2150,10 +2150,10 @@
         <v>0.54916417900000014</v>
       </c>
       <c r="F59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60">
         <v>11</v>
@@ -2179,10 +2179,10 @@
         <v>0.58950000000000002</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61">
         <v>12</v>
@@ -2208,10 +2208,10 @@
         <v>0.56672746637381433</v>
       </c>
       <c r="F61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62">
         <v>13</v>
@@ -2237,10 +2237,10 @@
         <v>0.58050000000000002</v>
       </c>
       <c r="F62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63">
         <v>14</v>
@@ -2266,10 +2266,10 @@
         <v>0.57020182070172087</v>
       </c>
       <c r="F63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64">
         <v>15</v>
@@ -2295,10 +2295,10 @@
         <v>0.56708289630850361</v>
       </c>
       <c r="F64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65">
         <v>17</v>
@@ -2324,10 +2324,10 @@
         <v>0.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66">
         <v>18</v>
@@ -2353,10 +2353,10 @@
         <v>0.55227605314017736</v>
       </c>
       <c r="F66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67">
         <v>19</v>
@@ -2382,10 +2382,10 @@
         <v>0.55181554762486762</v>
       </c>
       <c r="F67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68">
         <v>21</v>
@@ -2411,10 +2411,10 @@
         <v>0.54449999999999998</v>
       </c>
       <c r="F68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69">
         <v>22</v>
@@ -2440,10 +2440,10 @@
         <v>0.54</v>
       </c>
       <c r="F69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70">
         <v>23</v>
@@ -2469,10 +2469,10 @@
         <v>0.54585430979964034</v>
       </c>
       <c r="F70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71">
         <v>24</v>
@@ -2498,10 +2498,10 @@
         <v>0.53938241877313664</v>
       </c>
       <c r="F71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72">
         <v>25</v>
@@ -2527,10 +2527,10 @@
         <v>0.54159999151909832</v>
       </c>
       <c r="F72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73">
         <v>26</v>
@@ -2556,10 +2556,10 @@
         <v>0.53798788562219735</v>
       </c>
       <c r="F73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74">
         <v>27</v>
@@ -2585,10 +2585,10 @@
         <v>0.53701485372422053</v>
       </c>
       <c r="F74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C75">
         <v>28</v>
@@ -2614,10 +2614,10 @@
         <v>0.52205846487475915</v>
       </c>
       <c r="F75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C76">
         <v>29</v>
@@ -2643,10 +2643,10 @@
         <v>0.5367635278665247</v>
       </c>
       <c r="F76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C77">
         <v>32</v>
@@ -2672,10 +2672,10 @@
         <v>0.54916417900000003</v>
       </c>
       <c r="F77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78">
         <v>35</v>
@@ -2701,10 +2701,10 @@
         <v>0.54916417900000003</v>
       </c>
       <c r="F78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79">
         <v>37</v>
@@ -2730,10 +2730,10 @@
         <v>0.54916417900000003</v>
       </c>
       <c r="F79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C80">
         <v>39</v>
@@ -2759,10 +2759,10 @@
         <v>0.54916417900000003</v>
       </c>
       <c r="F80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C81">
         <v>41</v>
@@ -2788,10 +2788,10 @@
         <v>0.45450000000000002</v>
       </c>
       <c r="F81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -2805,7 +2805,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C82">
         <v>42</v>
@@ -2817,10 +2817,10 @@
         <v>0.45000000000000012</v>
       </c>
       <c r="F82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C83">
         <v>44</v>
@@ -2846,10 +2846,10 @@
         <v>0.54916417900000003</v>
       </c>
       <c r="F83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C84">
         <v>46</v>
@@ -2875,10 +2875,10 @@
         <v>0.46713866976332441</v>
       </c>
       <c r="F84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C85">
         <v>47</v>
@@ -2904,10 +2904,10 @@
         <v>0.54916417900000003</v>
       </c>
       <c r="F85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C86">
         <v>48</v>
@@ -2933,10 +2933,10 @@
         <v>0.42299999999999999</v>
       </c>
       <c r="F86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87">
         <v>49</v>
@@ -2962,10 +2962,10 @@
         <v>0.41839399293286222</v>
       </c>
       <c r="F87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C88">
         <v>121</v>
@@ -2991,10 +2991,10 @@
         <v>0.44137901724817508</v>
       </c>
       <c r="F88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -3020,10 +3020,10 @@
         <v>0.40589999999999993</v>
       </c>
       <c r="F89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -3049,10 +3049,10 @@
         <v>0.40479999999999988</v>
       </c>
       <c r="F90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -3078,10 +3078,10 @@
         <v>0.4037</v>
       </c>
       <c r="F91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -3107,10 +3107,10 @@
         <v>0.40260000000000012</v>
       </c>
       <c r="F92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93">
         <v>8</v>
@@ -3136,10 +3136,10 @@
         <v>0.40260338983050842</v>
       </c>
       <c r="F93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94">
         <v>9</v>
@@ -3165,10 +3165,10 @@
         <v>0.40355321415991552</v>
       </c>
       <c r="F94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95">
         <v>10</v>
@@ -3194,10 +3194,10 @@
         <v>0.40463723257669171</v>
       </c>
       <c r="F95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3211,7 +3211,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96">
         <v>15</v>
@@ -3223,10 +3223,10 @@
         <v>0.39478481012658229</v>
       </c>
       <c r="F96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97">
         <v>16</v>
@@ -3252,10 +3252,10 @@
         <v>0.39546587401057631</v>
       </c>
       <c r="F97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98">
         <v>17</v>
@@ -3281,10 +3281,10 @@
         <v>0.39117876754118369</v>
       </c>
       <c r="F98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3298,7 +3298,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99">
         <v>18</v>
@@ -3310,10 +3310,10 @@
         <v>0.38964230465666932</v>
       </c>
       <c r="F99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -3327,7 +3327,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100">
         <v>19</v>
@@ -3339,10 +3339,10 @@
         <v>0.38829999999999998</v>
       </c>
       <c r="F100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101">
         <v>20</v>
@@ -3368,10 +3368,10 @@
         <v>0.38719999999999988</v>
       </c>
       <c r="F101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3385,7 +3385,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102">
         <v>21</v>
@@ -3397,10 +3397,10 @@
         <v>0.38573238341968907</v>
       </c>
       <c r="F102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103">
         <v>23</v>
@@ -3426,10 +3426,10 @@
         <v>0.39393856749311301</v>
       </c>
       <c r="F103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104">
         <v>24</v>
@@ -3455,10 +3455,10 @@
         <v>0.38279999999999997</v>
       </c>
       <c r="F104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105">
         <v>25</v>
@@ -3484,10 +3484,10 @@
         <v>0.37728373289788808</v>
       </c>
       <c r="F105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3501,7 +3501,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106">
         <v>26</v>
@@ -3513,10 +3513,10 @@
         <v>0.37810042553191492</v>
       </c>
       <c r="F106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107">
         <v>27</v>
@@ -3542,10 +3542,10 @@
         <v>0.37852820121951231</v>
       </c>
       <c r="F107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108">
         <v>28</v>
@@ -3571,10 +3571,10 @@
         <v>0.37812654155495989</v>
       </c>
       <c r="F108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C109">
         <v>29</v>
@@ -3600,10 +3600,10 @@
         <v>0.37650122699386512</v>
       </c>
       <c r="F109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -3617,7 +3617,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C110">
         <v>30</v>
@@ -3629,10 +3629,10 @@
         <v>0.36577992974793722</v>
       </c>
       <c r="F110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111">
         <v>33</v>
@@ -3658,10 +3658,10 @@
         <v>0.36632416943521601</v>
       </c>
       <c r="F111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112">
         <v>34</v>
@@ -3687,10 +3687,10 @@
         <v>0.37180000000000007</v>
       </c>
       <c r="F112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C113">
         <v>35</v>
@@ -3716,10 +3716,10 @@
         <v>0.36593798608445299</v>
       </c>
       <c r="F113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C114">
         <v>38</v>
@@ -3745,10 +3745,10 @@
         <v>0.34654057507987218</v>
       </c>
       <c r="F114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115">
         <v>43</v>
@@ -3774,10 +3774,10 @@
         <v>0.36255598333002581</v>
       </c>
       <c r="F115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C116">
         <v>45</v>
@@ -3803,10 +3803,10 @@
         <v>0.35966377139166938</v>
       </c>
       <c r="F116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C117">
         <v>47</v>
@@ -3832,10 +3832,10 @@
         <v>0.35664127669219953</v>
       </c>
       <c r="F117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C118">
         <v>48</v>
@@ -3861,10 +3861,10 @@
         <v>0.31862908622908631</v>
       </c>
       <c r="F118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119">
         <v>49</v>
@@ -3890,10 +3890,10 @@
         <v>0.32711420765027333</v>
       </c>
       <c r="F119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C120">
         <v>51</v>
@@ -3919,10 +3919,10 @@
         <v>0.33726830520554107</v>
       </c>
       <c r="F120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -3936,7 +3936,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121">
         <v>61</v>
@@ -3948,10 +3948,10 @@
         <v>0.33307986577181209</v>
       </c>
       <c r="F121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122">
         <v>68</v>
@@ -3977,10 +3977,10 @@
         <v>0.33404418604651159</v>
       </c>
       <c r="F122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C123">
         <v>74</v>
@@ -4006,10 +4006,10 @@
         <v>0.32421992619926199</v>
       </c>
       <c r="F123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -4035,10 +4035,10 @@
         <v>0.79963675213675234</v>
       </c>
       <c r="F124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125">
         <v>13</v>
@@ -4064,10 +4064,10 @@
         <v>0.75450766338924236</v>
       </c>
       <c r="F125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C126">
         <v>18</v>
@@ -4093,10 +4093,10 @@
         <v>0.75</v>
       </c>
       <c r="F126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C127">
         <v>19</v>
@@ -4122,10 +4122,10 @@
         <v>0.75</v>
       </c>
       <c r="F127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -4139,7 +4139,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C128">
         <v>30</v>
@@ -4151,10 +4151,10 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="F128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129">
         <v>33</v>
@@ -4180,10 +4180,10 @@
         <v>0.75516728134878819</v>
       </c>
       <c r="F129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C130">
         <v>38</v>
@@ -4209,10 +4209,10 @@
         <v>0.79999999999999982</v>
       </c>
       <c r="F130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C131">
         <v>39</v>
@@ -4238,10 +4238,10 @@
         <v>0.76019900497512449</v>
       </c>
       <c r="F131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C132">
         <v>40</v>
@@ -4267,10 +4267,10 @@
         <v>0.80000000000000016</v>
       </c>
       <c r="F132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C133">
         <v>43</v>
@@ -4296,10 +4296,10 @@
         <v>0.75057688670323441</v>
       </c>
       <c r="F133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C134">
         <v>44</v>
@@ -4325,10 +4325,10 @@
         <v>0.8</v>
       </c>
       <c r="F134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C135">
         <v>47</v>
@@ -4354,10 +4354,10 @@
         <v>0.75090104672493796</v>
       </c>
       <c r="F135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C136">
         <v>48</v>
@@ -4383,10 +4383,10 @@
         <v>0.75</v>
       </c>
       <c r="F136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -4400,7 +4400,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C137">
         <v>52</v>
@@ -4412,10 +4412,10 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="F137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C138">
         <v>55</v>
@@ -4441,10 +4441,10 @@
         <v>0.76340679522497701</v>
       </c>
       <c r="F138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C139">
         <v>56</v>
@@ -4470,10 +4470,10 @@
         <v>0.75924835861444406</v>
       </c>
       <c r="F139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C140">
         <v>57</v>
@@ -4499,10 +4499,10 @@
         <v>0.772321236847756</v>
       </c>
       <c r="F140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C141">
         <v>58</v>
@@ -4528,10 +4528,10 @@
         <v>0.75441176470588234</v>
       </c>
       <c r="F141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C142">
         <v>60</v>
@@ -4557,10 +4557,10 @@
         <v>0.8</v>
       </c>
       <c r="F142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C143">
         <v>62</v>
@@ -4586,10 +4586,10 @@
         <v>0.77701149425287364</v>
       </c>
       <c r="F143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C144">
         <v>63</v>
@@ -4615,10 +4615,10 @@
         <v>0.75746799431009948</v>
       </c>
       <c r="F144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -4632,7 +4632,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C145">
         <v>64</v>
@@ -4644,10 +4644,10 @@
         <v>0.75484386997696451</v>
       </c>
       <c r="F145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C146">
         <v>67</v>
@@ -4673,10 +4673,10 @@
         <v>0.78540683962264157</v>
       </c>
       <c r="F146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C147">
         <v>68</v>
@@ -4702,10 +4702,10 @@
         <v>0.95853658536585373</v>
       </c>
       <c r="F147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C148">
         <v>69</v>
@@ -4731,10 +4731,10 @@
         <v>0.8</v>
       </c>
       <c r="F148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -4748,7 +4748,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C149">
         <v>71</v>
@@ -4760,10 +4760,10 @@
         <v>0.76927488734125371</v>
       </c>
       <c r="F149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C150">
         <v>74</v>
@@ -4789,10 +4789,10 @@
         <v>0.75</v>
       </c>
       <c r="F150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C151">
         <v>78</v>
@@ -4818,10 +4818,10 @@
         <v>0.8</v>
       </c>
       <c r="F151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G151" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C152">
         <v>79</v>
@@ -4847,10 +4847,10 @@
         <v>0.75</v>
       </c>
       <c r="F152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -4864,7 +4864,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C153">
         <v>80</v>
@@ -4876,10 +4876,10 @@
         <v>0.8</v>
       </c>
       <c r="F153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C154">
         <v>84</v>
@@ -4905,10 +4905,10 @@
         <v>0.8</v>
       </c>
       <c r="F154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G154" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -4922,7 +4922,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C155">
         <v>90</v>
@@ -4934,10 +4934,10 @@
         <v>0.76192748091603046</v>
       </c>
       <c r="F155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G155" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C156">
         <v>95</v>
@@ -4963,10 +4963,10 @@
         <v>0.78346153846153854</v>
       </c>
       <c r="F156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C157">
         <v>98</v>
@@ -4992,10 +4992,10 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="F157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G157" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -5009,7 +5009,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158">
         <v>100</v>
@@ -5021,10 +5021,10 @@
         <v>0.82179242713157175</v>
       </c>
       <c r="F158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C159">
         <v>33</v>
@@ -5050,10 +5050,10 @@
         <v>0.33</v>
       </c>
       <c r="F159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -5067,7 +5067,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C160">
         <v>34</v>
@@ -5079,10 +5079,10 @@
         <v>0.33</v>
       </c>
       <c r="F160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C161">
         <v>36</v>
@@ -5108,10 +5108,10 @@
         <v>0.33</v>
       </c>
       <c r="F161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -5125,7 +5125,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C162">
         <v>37</v>
@@ -5137,10 +5137,10 @@
         <v>0.33</v>
       </c>
       <c r="F162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C163">
         <v>38</v>
@@ -5166,10 +5166,10 @@
         <v>0.33</v>
       </c>
       <c r="F163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -5195,10 +5195,10 @@
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -5224,10 +5224,10 @@
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -5241,7 +5241,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C166">
         <v>2</v>
@@ -5253,10 +5253,10 @@
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -5270,7 +5270,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C167">
         <v>3</v>
@@ -5282,10 +5282,10 @@
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -5299,7 +5299,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C168">
         <v>4</v>
@@ -5311,10 +5311,10 @@
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C169">
         <v>5</v>
@@ -5340,10 +5340,10 @@
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -5357,7 +5357,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C170">
         <v>6</v>
@@ -5369,10 +5369,10 @@
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G170" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -5386,7 +5386,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C171">
         <v>7</v>
@@ -5398,10 +5398,10 @@
         <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G171" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -5415,7 +5415,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C172">
         <v>8</v>
@@ -5427,10 +5427,10 @@
         <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -5444,7 +5444,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C173">
         <v>9</v>
@@ -5456,10 +5456,10 @@
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G173" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C174">
         <v>10</v>
@@ -5485,10 +5485,10 @@
         <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C175">
         <v>11</v>
@@ -5514,10 +5514,10 @@
         <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -5531,7 +5531,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C176">
         <v>12</v>
@@ -5543,10 +5543,10 @@
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G176" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -5560,7 +5560,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C177">
         <v>13</v>
@@ -5572,10 +5572,10 @@
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C178">
         <v>14</v>
@@ -5601,10 +5601,10 @@
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G178" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C179">
         <v>15</v>
@@ -5630,10 +5630,10 @@
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G179" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C180">
         <v>16</v>
@@ -5659,10 +5659,10 @@
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G180" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C181">
         <v>17</v>
@@ -5688,10 +5688,10 @@
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G181" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -5705,7 +5705,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C182">
         <v>18</v>
@@ -5717,10 +5717,10 @@
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -5734,7 +5734,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C183">
         <v>19</v>
@@ -5746,10 +5746,10 @@
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -5763,7 +5763,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C184">
         <v>20</v>
@@ -5775,10 +5775,10 @@
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G184" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -5792,7 +5792,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C185">
         <v>21</v>
@@ -5804,10 +5804,10 @@
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -5821,7 +5821,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C186">
         <v>22</v>
@@ -5833,10 +5833,10 @@
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -5850,7 +5850,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C187">
         <v>23</v>
@@ -5862,10 +5862,10 @@
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C188">
         <v>24</v>
@@ -5891,10 +5891,10 @@
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C189">
         <v>25</v>
@@ -5920,10 +5920,10 @@
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -5937,7 +5937,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C190">
         <v>26</v>
@@ -5949,10 +5949,10 @@
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C191">
         <v>27</v>
@@ -5978,10 +5978,10 @@
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G191" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C192">
         <v>28</v>
@@ -6007,10 +6007,10 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -6024,7 +6024,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -6036,10 +6036,10 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -6053,7 +6053,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C194">
         <v>2</v>
@@ -6065,10 +6065,10 @@
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C195">
         <v>3</v>
@@ -6094,10 +6094,10 @@
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C196">
         <v>4</v>
@@ -6123,10 +6123,10 @@
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G196" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -6140,7 +6140,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C197">
         <v>5</v>
@@ -6152,10 +6152,10 @@
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -6169,7 +6169,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C198">
         <v>6</v>
@@ -6181,10 +6181,10 @@
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G198" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -6198,7 +6198,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C199">
         <v>7</v>
@@ -6210,10 +6210,10 @@
         <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C200">
         <v>8</v>
@@ -6239,10 +6239,10 @@
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G200" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -6256,7 +6256,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C201">
         <v>9</v>
@@ -6268,10 +6268,10 @@
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -6285,7 +6285,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C202">
         <v>12</v>
@@ -6297,10 +6297,10 @@
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G202" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C203">
         <v>14</v>
@@ -6326,10 +6326,10 @@
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G203" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -6343,7 +6343,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -6355,10 +6355,10 @@
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G204" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -6372,7 +6372,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -6384,10 +6384,10 @@
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G205" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C206">
         <v>2</v>
@@ -6413,10 +6413,10 @@
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C207">
         <v>3</v>
@@ -6442,10 +6442,10 @@
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -6459,7 +6459,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C208">
         <v>4</v>
@@ -6471,10 +6471,10 @@
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -6488,7 +6488,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C209">
         <v>5</v>
@@ -6500,10 +6500,10 @@
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G209" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C210">
         <v>6</v>
@@ -6529,10 +6529,10 @@
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G210" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -6546,7 +6546,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C211">
         <v>7</v>
@@ -6558,10 +6558,10 @@
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G211" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -6575,7 +6575,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C212">
         <v>8</v>
@@ -6587,10 +6587,10 @@
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G212" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C213">
         <v>9</v>
@@ -6616,10 +6616,10 @@
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G213" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -6633,7 +6633,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C214">
         <v>10</v>
@@ -6645,10 +6645,10 @@
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G214" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -6662,7 +6662,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C215">
         <v>11</v>
@@ -6674,10 +6674,10 @@
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G215" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C216">
         <v>12</v>
@@ -6703,10 +6703,10 @@
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C217">
         <v>13</v>
@@ -6732,10 +6732,10 @@
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -6749,7 +6749,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C218">
         <v>14</v>
@@ -6761,10 +6761,10 @@
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -6778,7 +6778,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C219">
         <v>15</v>
@@ -6790,10 +6790,10 @@
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G219" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -6807,7 +6807,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C220">
         <v>16</v>
@@ -6819,10 +6819,10 @@
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -6836,7 +6836,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C221">
         <v>17</v>
@@ -6848,10 +6848,10 @@
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -6865,7 +6865,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C222">
         <v>18</v>
@@ -6877,10 +6877,10 @@
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -6894,7 +6894,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C223">
         <v>19</v>
@@ -6906,10 +6906,10 @@
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G223" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -6923,7 +6923,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C224">
         <v>20</v>
@@ -6935,10 +6935,10 @@
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -6952,7 +6952,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C225">
         <v>21</v>
@@ -6964,10 +6964,10 @@
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -6981,7 +6981,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C226">
         <v>10</v>
@@ -6993,10 +6993,10 @@
         <v>0.42883504657770738</v>
       </c>
       <c r="F226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G226" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -7010,7 +7010,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C227">
         <v>12</v>
@@ -7022,10 +7022,10 @@
         <v>0.42399999999999999</v>
       </c>
       <c r="F227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -7039,7 +7039,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C228">
         <v>13</v>
@@ -7051,10 +7051,10 @@
         <v>0.42159999999999997</v>
       </c>
       <c r="F228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G228" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -7068,7 +7068,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C229">
         <v>14</v>
@@ -7080,10 +7080,10 @@
         <v>0.41920000000000002</v>
       </c>
       <c r="F229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -7097,7 +7097,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C230">
         <v>20</v>
@@ -7109,10 +7109,10 @@
         <v>0.40491523334918628</v>
       </c>
       <c r="F230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -7126,7 +7126,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C231">
         <v>22</v>
@@ -7138,10 +7138,10 @@
         <v>0.4</v>
       </c>
       <c r="F231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -7155,7 +7155,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C232">
         <v>23</v>
@@ -7167,10 +7167,10 @@
         <v>0.39760000000000001</v>
       </c>
       <c r="F232" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G232" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -7184,7 +7184,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C233">
         <v>24</v>
@@ -7196,10 +7196,10 @@
         <v>0.3952</v>
       </c>
       <c r="F233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G233" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -7213,7 +7213,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C234">
         <v>25</v>
@@ -7225,10 +7225,10 @@
         <v>0.39279999999999993</v>
       </c>
       <c r="F234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G234" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -7242,7 +7242,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C235">
         <v>26</v>
@@ -7254,10 +7254,10 @@
         <v>0.39038273381294969</v>
       </c>
       <c r="F235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G235" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -7271,7 +7271,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C236">
         <v>28</v>
@@ -7283,10 +7283,10 @@
         <v>0.3856</v>
       </c>
       <c r="F236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G236" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C237">
         <v>29</v>
@@ -7312,10 +7312,10 @@
         <v>0.38319999999999999</v>
       </c>
       <c r="F237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -7329,7 +7329,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C238">
         <v>32</v>
@@ -7341,10 +7341,10 @@
         <v>0.37600000000000011</v>
       </c>
       <c r="F238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G238" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -7358,7 +7358,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C239">
         <v>33</v>
@@ -7370,10 +7370,10 @@
         <v>0.37359999999999999</v>
       </c>
       <c r="F239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G239" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -7387,7 +7387,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C240">
         <v>34</v>
@@ -7399,10 +7399,10 @@
         <v>0.37119999999999997</v>
       </c>
       <c r="F240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C241">
         <v>35</v>
@@ -7428,10 +7428,10 @@
         <v>0.36880000000000002</v>
       </c>
       <c r="F241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -7445,7 +7445,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C242">
         <v>37</v>
@@ -7457,10 +7457,10 @@
         <v>0.36387644616662052</v>
       </c>
       <c r="F242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G242" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C243">
         <v>43</v>
@@ -7486,10 +7486,10 @@
         <v>0.34960000000000002</v>
       </c>
       <c r="F243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G243" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C244">
         <v>46</v>
@@ -7515,10 +7515,10 @@
         <v>0.34239999999999998</v>
       </c>
       <c r="F244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G244" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -7532,7 +7532,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C245">
         <v>47</v>
@@ -7544,10 +7544,10 @@
         <v>0.34000000000000008</v>
       </c>
       <c r="F245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G245" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -7561,7 +7561,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C246">
         <v>48</v>
@@ -7573,10 +7573,10 @@
         <v>0.33760000000000001</v>
       </c>
       <c r="F246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G246" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -7590,7 +7590,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C247">
         <v>49</v>
@@ -7602,10 +7602,10 @@
         <v>0.3352</v>
       </c>
       <c r="F247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G247" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -7619,7 +7619,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C248">
         <v>50</v>
@@ -7631,10 +7631,10 @@
         <v>0.33279999999999998</v>
       </c>
       <c r="F248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G248" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -7648,7 +7648,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C249">
         <v>51</v>
@@ -7660,10 +7660,10 @@
         <v>0.33040000000000003</v>
       </c>
       <c r="F249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G249" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -7677,7 +7677,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C250">
         <v>52</v>
@@ -7689,10 +7689,10 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="F250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G250" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -7706,7 +7706,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C251">
         <v>54</v>
@@ -7718,10 +7718,10 @@
         <v>0.32319999999999999</v>
       </c>
       <c r="F251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G251" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -7735,7 +7735,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C252">
         <v>55</v>
@@ -7747,10 +7747,10 @@
         <v>0.32079999999999997</v>
       </c>
       <c r="F252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G252" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -7764,7 +7764,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C253">
         <v>57</v>
@@ -7776,10 +7776,10 @@
         <v>0.31589743589743591</v>
       </c>
       <c r="F253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G253" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -7793,7 +7793,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C254">
         <v>86</v>
@@ -7805,10 +7805,10 @@
         <v>0.24771707317073169</v>
       </c>
       <c r="F254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G254" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C255">
         <v>105</v>
@@ -7834,10 +7834,10 @@
         <v>0.20080000000000001</v>
       </c>
       <c r="F255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -7851,7 +7851,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C256">
         <v>11</v>
@@ -7863,10 +7863,10 @@
         <v>0.39710000000000001</v>
       </c>
       <c r="F256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G256" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -7880,7 +7880,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C257">
         <v>14</v>
@@ -7892,10 +7892,10 @@
         <v>0.38</v>
       </c>
       <c r="F257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G257" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -7909,7 +7909,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C258">
         <v>18</v>
@@ -7921,10 +7921,10 @@
         <v>0.38</v>
       </c>
       <c r="F258" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G258" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -7938,7 +7938,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C259">
         <v>24</v>
@@ -7950,10 +7950,10 @@
         <v>0.38279999999999997</v>
       </c>
       <c r="F259" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G259" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -7967,7 +7967,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C260">
         <v>25</v>
@@ -7979,10 +7979,10 @@
         <v>0.38008386433710178</v>
       </c>
       <c r="F260" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G260" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C261">
         <v>27</v>
@@ -8008,10 +8008,10 @@
         <v>0.37950000000000012</v>
       </c>
       <c r="F261" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G261" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -8025,7 +8025,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C262">
         <v>28</v>
@@ -8037,10 +8037,10 @@
         <v>0.36544154411764712</v>
       </c>
       <c r="F262" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G262" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C263">
         <v>40</v>
@@ -8066,10 +8066,10 @@
         <v>0.3332</v>
       </c>
       <c r="F263" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G263" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -8083,7 +8083,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C264">
         <v>41</v>
@@ -8095,10 +8095,10 @@
         <v>0.3306</v>
       </c>
       <c r="F264" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G264" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C265">
         <v>45</v>
@@ -8124,10 +8124,10 @@
         <v>0.32451830985915492</v>
       </c>
       <c r="F265" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G265" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -8141,7 +8141,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C266">
         <v>46</v>
@@ -8153,10 +8153,10 @@
         <v>0.31759999999999999</v>
       </c>
       <c r="F266" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G266" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -8170,7 +8170,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C267">
         <v>47</v>
@@ -8182,10 +8182,10 @@
         <v>0.3671346375143843</v>
       </c>
       <c r="F267" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G267" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -8199,7 +8199,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C268">
         <v>48</v>
@@ -8211,10 +8211,10 @@
         <v>0.35639999999999999</v>
       </c>
       <c r="F268" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G268" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C269">
         <v>49</v>
@@ -8240,10 +8240,10 @@
         <v>0.35048336483931952</v>
       </c>
       <c r="F269" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G269" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -8257,7 +8257,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C270">
         <v>50</v>
@@ -8269,10 +8269,10 @@
         <v>0.3251815303430079</v>
       </c>
       <c r="F270" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G270" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -8286,7 +8286,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C271">
         <v>51</v>
@@ -8298,10 +8298,10 @@
         <v>0.30459999999999998</v>
       </c>
       <c r="F271" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G271" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C272">
         <v>60</v>
@@ -8327,10 +8327,10 @@
         <v>0.34320000000000001</v>
       </c>
       <c r="F272" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G272" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H272">
         <v>0</v>
